--- a/PRJ-23/Resultados/aircraft_parameters.xlsx
+++ b/PRJ-23/Resultados/aircraft_parameters.xlsx
@@ -103,16 +103,16 @@
     <t>altitude de voo [m]</t>
   </si>
   <si>
-    <t>383503.00</t>
-  </si>
-  <si>
-    <t>2304827.35</t>
-  </si>
-  <si>
-    <t>2535871.86</t>
-  </si>
-  <si>
-    <t>29662.66</t>
+    <t>500695.79</t>
+  </si>
+  <si>
+    <t>2435082.75</t>
+  </si>
+  <si>
+    <t>2772477.24</t>
+  </si>
+  <si>
+    <t>41490.02</t>
   </si>
   <si>
     <t>designTool</t>
@@ -501,7 +501,7 @@
         <v>18</v>
       </c>
       <c r="C2">
-        <v>81.724</v>
+        <v>96.696941</v>
       </c>
       <c r="D2" t="s">
         <v>33</v>
@@ -515,7 +515,7 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>3.328739656063366</v>
+        <v>3.50159368667924</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -529,7 +529,7 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>26.92381622281656</v>
+        <v>30.28404041543846</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -543,7 +543,7 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>44163.32318428523</v>
+        <v>47255.62236161127</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
